--- a/biology/Biochimie/Dihydrolipoamide_S-succinyltransférase/Dihydrolipoamide_S-succinyltransférase.xlsx
+++ b/biology/Biochimie/Dihydrolipoamide_S-succinyltransférase/Dihydrolipoamide_S-succinyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dihydrolipoamide_S-succinyltransf%C3%A9rase</t>
+          <t>Dihydrolipoamide_S-succinyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La dihydrolipoamide S-succinyltransférase est une acyltransférase qui fait partie du complexe α-cétoglutarate déshydrogénase, dont elle est l'enzyme E2, complexe qui réalise la conversion de l'α-cétoglutarate en succinyl-CoA et CO2 :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dihydrolipoamide_S-succinyltransf%C3%A9rase</t>
+          <t>Dihydrolipoamide_S-succinyltransférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>La dihydrolipoamide S-succinyltransférase</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La dihydrolipoamide S-succinyltransférase est une acyltransférase faisant intervenir successivement trois cofacteurs : la thiamine pyrophosphate (TPP, liée à l’alpha-cétoglutarate déshydrogénase), le dihydrolipoamide et la coenzyme A (CoA-SH), cette dernière étant convertie en acétyl-coenzyme A (acétyl-CoA).
 Le véritable cofacteur est en fait l'acide lipoïque davantage que le (dihydro)lipoamide, mais cet acide carboxylique est lié par covalence à la protéine E2 au moyen d'une liaison amide sur un résidu de lysine, ce qui donne l'équivalent d'un résidu de lipoamide.
